--- a/Python_2024/Excel/Timesheet.xlsx
+++ b/Python_2024/Excel/Timesheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="May 2023"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="119">
   <si>
     <t>Risikobillede - et eksempel</t>
   </si>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">Total </t>
   </si>
   <si>
-    <t>Task</t>
+    <t/>
   </si>
   <si>
     <t>01.08.2023</t>
@@ -173,9 +173,6 @@
     <t>05.07.2023</t>
   </si>
   <si>
-    <t>Helena</t>
-  </si>
-  <si>
     <t>06.07.2023</t>
   </si>
   <si>
@@ -260,9 +257,6 @@
     <t>02.06.2023</t>
   </si>
   <si>
-    <t>Sabine udredning</t>
-  </si>
-  <si>
     <t>03.06.2023</t>
   </si>
   <si>
@@ -275,9 +269,6 @@
     <t>06.06.2023</t>
   </si>
   <si>
-    <t>AML</t>
-  </si>
-  <si>
     <t>07.06.2023</t>
   </si>
   <si>
@@ -299,9 +290,6 @@
     <t>13.06.2023</t>
   </si>
   <si>
-    <t>AML exam</t>
-  </si>
-  <si>
     <t>14.06.2023</t>
   </si>
   <si>
@@ -359,25 +347,13 @@
     <t>22.05.2023</t>
   </si>
   <si>
-    <t xml:space="preserve">Introduction </t>
-  </si>
-  <si>
     <t>23.05.2023</t>
   </si>
   <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>24.05.2023</t>
   </si>
   <si>
     <t>25.05.2023</t>
-  </si>
-  <si>
-    <t>Rehab</t>
   </si>
   <si>
     <t>26.05.2023</t>
@@ -406,13 +382,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -422,7 +404,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF1f2023"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -622,147 +604,156 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1069,19 +1060,19 @@
   </sheetPr>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="32" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="38" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="38" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="45" width="8.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="45" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="45" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="49" width="8.290714285714287" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="32" width="10.719285714285713" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="32" width="18.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
@@ -1091,63 +1082,61 @@
       <c r="C1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="35" t="s">
+      <c r="D1" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="37" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="35" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B2" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C2" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D2" s="36">
         <f>C2-B2</f>
         <v>25569.041666666668</v>
       </c>
-      <c r="E2" s="35" t="s">
-        <v>113</v>
+      <c r="E2" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="35" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B3" s="36">
-        <v>1.34375</v>
+        <v>2.34375</v>
       </c>
       <c r="C3" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D3" s="36">
         <f>C3-B3</f>
         <v>25569.041666666668</v>
       </c>
-      <c r="E3" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="E3" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="47">
-        <v>1.3333333333333333</v>
+        <v>110</v>
+      </c>
+      <c r="B4" s="50">
+        <v>2.333333333333333</v>
       </c>
       <c r="C4" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D4" s="36">
         <f>C4-B4</f>
@@ -1156,34 +1145,34 @@
       <c r="E4" s="35"/>
       <c r="F4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="35" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B5" s="36">
-        <v>1.4583333333333333</v>
+        <v>2.458333333333333</v>
       </c>
       <c r="C5" s="36">
-        <v>1.7083333333333335</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="D5" s="36">
         <f>C5-B5</f>
         <v>25569.041666666668</v>
       </c>
       <c r="E5" s="35"/>
-      <c r="F5" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="F5" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="35" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B6" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C6" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D6" s="36">
         <f>C6-B6</f>
@@ -1192,9 +1181,9 @@
       <c r="E6" s="35"/>
       <c r="F6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="35" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>20</v>
@@ -1202,15 +1191,15 @@
       <c r="C7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="47" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="35" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>20</v>
@@ -1218,37 +1207,37 @@
       <c r="C8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="47" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="35" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>124</v>
+        <v>116</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>116</v>
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="35" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B10" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C10" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D10" s="36">
         <f>C10-B10</f>
@@ -1257,15 +1246,15 @@
       <c r="E10" s="35"/>
       <c r="F10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="35" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B11" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C11" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D11" s="36">
         <f>C11-B11</f>
@@ -1274,147 +1263,147 @@
       <c r="E11" s="35"/>
       <c r="F11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="35"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
-      <c r="D12" s="43"/>
+      <c r="D12" s="47"/>
       <c r="E12" s="35"/>
       <c r="F12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="35"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
-      <c r="D13" s="43"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="35"/>
       <c r="F13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="35"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
-      <c r="D14" s="43"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="35"/>
       <c r="F14" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="35"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
-      <c r="D15" s="43"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="35"/>
       <c r="F15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="35"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
-      <c r="D16" s="43"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="35"/>
       <c r="F16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="35"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
-      <c r="D17" s="43"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="35"/>
       <c r="F17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="35"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="35"/>
       <c r="F18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="35"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="43"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="35"/>
       <c r="F19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="35"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="43"/>
+      <c r="D20" s="47"/>
       <c r="E20" s="35"/>
       <c r="F20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="43"/>
+      <c r="D21" s="47"/>
       <c r="E21" s="35"/>
       <c r="F21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="43"/>
+      <c r="D22" s="47"/>
       <c r="E22" s="35"/>
       <c r="F22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="35"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
-      <c r="D23" s="43"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="35"/>
       <c r="F23" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="35"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
-      <c r="D24" s="43"/>
+      <c r="D24" s="47"/>
       <c r="E24" s="35"/>
       <c r="F24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="35"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
-      <c r="D25" s="43"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="35"/>
       <c r="F25" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="35"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
-      <c r="D26" s="43"/>
+      <c r="D26" s="47"/>
       <c r="E26" s="35"/>
       <c r="F26" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="35"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
-      <c r="D27" s="43"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="35"/>
       <c r="F27" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="35"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
-      <c r="D28" s="43"/>
+      <c r="D28" s="47"/>
       <c r="E28" s="35"/>
       <c r="F28" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="35"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
-      <c r="D29" s="43"/>
+      <c r="D29" s="47"/>
       <c r="E29" s="35"/>
       <c r="F29" s="1"/>
     </row>
@@ -1422,7 +1411,7 @@
       <c r="A30" s="35"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
-      <c r="D30" s="43"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="35"/>
       <c r="F30" s="1"/>
     </row>
@@ -1430,7 +1419,7 @@
       <c r="A31" s="35"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
-      <c r="D31" s="43"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="35"/>
       <c r="F31" s="1"/>
     </row>
@@ -1438,15 +1427,15 @@
       <c r="A32" s="35"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
-      <c r="D32" s="43"/>
+      <c r="D32" s="47"/>
       <c r="E32" s="35"/>
       <c r="F32" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="44">
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="48">
         <v>53.5</v>
       </c>
       <c r="E33" s="1"/>
@@ -1469,9 +1458,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="32" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="38" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="38" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="45" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="45" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="45" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="49" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="32" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="32" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
@@ -1486,23 +1475,23 @@
       <c r="C1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="37" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C2" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D2" s="36">
         <f>C2-B2</f>
@@ -1513,26 +1502,26 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="36">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="C3" s="36">
-        <v>1.7083333333333335</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="D3" s="36">
         <f>C3-B3</f>
         <v>25569.041666666668</v>
       </c>
       <c r="E3" s="35"/>
-      <c r="F3" s="1" t="s">
-        <v>80</v>
+      <c r="F3" s="42" t="s">
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>20</v>
@@ -1540,7 +1529,7 @@
       <c r="C4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="47" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="35"/>
@@ -1548,7 +1537,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>20</v>
@@ -1556,7 +1545,7 @@
       <c r="C5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="47" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="35"/>
@@ -1564,13 +1553,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C6" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D6" s="36">
         <f>C6-B6</f>
@@ -1581,32 +1570,32 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B7" s="36">
-        <v>1.5833333333333335</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="C7" s="36">
-        <v>1.7083333333333335</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="D7" s="36">
         <f>C7-B7</f>
         <v>25569.041666666668</v>
       </c>
       <c r="E7" s="35"/>
-      <c r="F7" s="1" t="s">
-        <v>85</v>
+      <c r="F7" s="42" t="s">
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="35" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B8" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C8" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D8" s="36">
         <f>C8-B8</f>
@@ -1617,13 +1606,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B9" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C9" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D9" s="36">
         <f>C9-B9</f>
@@ -1634,13 +1623,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="35" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B10" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C10" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D10" s="36">
         <f>C10-B10</f>
@@ -1651,7 +1640,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>20</v>
@@ -1659,7 +1648,7 @@
       <c r="C11" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="47" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="35"/>
@@ -1667,7 +1656,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>20</v>
@@ -1675,7 +1664,7 @@
       <c r="C12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="47" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="35"/>
@@ -1683,13 +1672,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B13" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C13" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D13" s="36">
         <f>C13-B13</f>
@@ -1700,32 +1689,32 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="35" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B14" s="36">
-        <v>1.5833333333333335</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="C14" s="36">
-        <v>1.7083333333333335</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="D14" s="36">
         <f>C14-B14</f>
         <v>25569.041666666668</v>
       </c>
       <c r="E14" s="35"/>
-      <c r="F14" s="1" t="s">
-        <v>93</v>
+      <c r="F14" s="42" t="s">
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B15" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C15" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D15" s="36">
         <f>C15-B15</f>
@@ -1736,13 +1725,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B16" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C16" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D16" s="36">
         <f>C16-B16</f>
@@ -1753,13 +1742,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B17" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C17" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D17" s="36">
         <f>C17-B17</f>
@@ -1770,7 +1759,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="35" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>20</v>
@@ -1778,7 +1767,7 @@
       <c r="C18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="47" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="35"/>
@@ -1786,7 +1775,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="35" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>20</v>
@@ -1794,7 +1783,7 @@
       <c r="C19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="47" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="35"/>
@@ -1802,13 +1791,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B20" s="36">
-        <v>1.34375</v>
+        <v>2.34375</v>
       </c>
       <c r="C20" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D20" s="36">
         <f>C20-B20</f>
@@ -1819,13 +1808,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="35" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B21" s="36">
-        <v>1.34375</v>
+        <v>2.34375</v>
       </c>
       <c r="C21" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D21" s="36">
         <f>C21-B21</f>
@@ -1836,13 +1825,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B22" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C22" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D22" s="36">
         <f>C22-B22</f>
@@ -1853,13 +1842,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="35" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B23" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C23" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D23" s="36">
         <f>C23-B23</f>
@@ -1870,13 +1859,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="35" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B24" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C24" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D24" s="36">
         <f>C24-B24</f>
@@ -1887,7 +1876,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="35" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B25" s="36" t="s">
         <v>20</v>
@@ -1895,7 +1884,7 @@
       <c r="C25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="47" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="35"/>
@@ -1903,7 +1892,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B26" s="36" t="s">
         <v>20</v>
@@ -1911,7 +1900,7 @@
       <c r="C26" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="47" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="35"/>
@@ -1919,13 +1908,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B27" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C27" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D27" s="36">
         <f>C27-B27</f>
@@ -1936,13 +1925,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B28" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C28" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D28" s="36">
         <f>C28-B28</f>
@@ -1953,13 +1942,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B29" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C29" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D29" s="36">
         <f>C29-B29</f>
@@ -1970,13 +1959,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="35" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B30" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C30" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D30" s="36">
         <f>C30-B30</f>
@@ -1987,13 +1976,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="35" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B31" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C31" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D31" s="36">
         <f>C31-B31</f>
@@ -2004,9 +1993,9 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="44">
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="48">
         <v>149.5</v>
       </c>
       <c r="E32" s="1"/>
@@ -2029,9 +2018,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="32" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="38" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="38" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="42" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="45" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="45" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="46" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="32" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="32" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
@@ -2046,10 +2035,10 @@
       <c r="C1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="37" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="1"/>
@@ -2064,7 +2053,7 @@
       <c r="C2" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="41" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="35"/>
@@ -2080,7 +2069,7 @@
       <c r="C3" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="41" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="35"/>
@@ -2091,10 +2080,10 @@
         <v>48</v>
       </c>
       <c r="B4" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C4" s="36">
-        <v>1.7083333333333335</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="D4" s="36">
         <f>C4-B4</f>
@@ -2108,10 +2097,10 @@
         <v>49</v>
       </c>
       <c r="B5" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C5" s="36">
-        <v>1.7083333333333335</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="D5" s="36">
         <f>C5-B5</f>
@@ -2130,17 +2119,17 @@
       <c r="C6" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="35"/>
-      <c r="F6" s="1" t="s">
-        <v>51</v>
+      <c r="F6" s="42" t="s">
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>15</v>
@@ -2148,7 +2137,7 @@
       <c r="C7" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="35"/>
@@ -2156,7 +2145,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>15</v>
@@ -2164,7 +2153,7 @@
       <c r="C8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="35"/>
@@ -2172,7 +2161,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>15</v>
@@ -2180,7 +2169,7 @@
       <c r="C9" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="35"/>
@@ -2188,7 +2177,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>15</v>
@@ -2196,7 +2185,7 @@
       <c r="C10" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="35"/>
@@ -2204,7 +2193,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>15</v>
@@ -2212,7 +2201,7 @@
       <c r="C11" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="35"/>
@@ -2220,7 +2209,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>15</v>
@@ -2228,7 +2217,7 @@
       <c r="C12" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="35"/>
@@ -2236,7 +2225,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="36" t="s">
         <v>15</v>
@@ -2244,7 +2233,7 @@
       <c r="C13" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="35"/>
@@ -2252,7 +2241,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>15</v>
@@ -2260,7 +2249,7 @@
       <c r="C14" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="35"/>
@@ -2268,7 +2257,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>15</v>
@@ -2276,7 +2265,7 @@
       <c r="C15" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="35"/>
@@ -2284,7 +2273,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>15</v>
@@ -2292,7 +2281,7 @@
       <c r="C16" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="35"/>
@@ -2300,7 +2289,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="36" t="s">
         <v>15</v>
@@ -2308,7 +2297,7 @@
       <c r="C17" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="35"/>
@@ -2316,7 +2305,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>15</v>
@@ -2324,7 +2313,7 @@
       <c r="C18" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="35"/>
@@ -2332,7 +2321,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>15</v>
@@ -2340,7 +2329,7 @@
       <c r="C19" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="35"/>
@@ -2348,7 +2337,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>15</v>
@@ -2356,7 +2345,7 @@
       <c r="C20" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="35"/>
@@ -2364,7 +2353,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>15</v>
@@ -2372,7 +2361,7 @@
       <c r="C21" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="35"/>
@@ -2380,7 +2369,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="36" t="s">
         <v>15</v>
@@ -2388,7 +2377,7 @@
       <c r="C22" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="35"/>
@@ -2396,7 +2385,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>15</v>
@@ -2404,7 +2393,7 @@
       <c r="C23" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="35"/>
@@ -2412,7 +2401,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>15</v>
@@ -2420,7 +2409,7 @@
       <c r="C24" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="35"/>
@@ -2428,7 +2417,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="36" t="s">
         <v>15</v>
@@ -2436,7 +2425,7 @@
       <c r="C25" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="35"/>
@@ -2444,7 +2433,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="36" t="s">
         <v>15</v>
@@ -2452,7 +2441,7 @@
       <c r="C26" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="35"/>
@@ -2460,7 +2449,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>15</v>
@@ -2468,7 +2457,7 @@
       <c r="C27" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="35"/>
@@ -2476,7 +2465,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="36" t="s">
         <v>15</v>
@@ -2484,7 +2473,7 @@
       <c r="C28" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="35"/>
@@ -2492,7 +2481,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" s="36" t="s">
         <v>15</v>
@@ -2500,15 +2489,15 @@
       <c r="C29" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="37" t="s">
-        <v>75</v>
+      <c r="A30" s="38" t="s">
+        <v>74</v>
       </c>
       <c r="B30" s="36" t="s">
         <v>15</v>
@@ -2516,15 +2505,15 @@
       <c r="C30" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="37"/>
+      <c r="D30" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="38"/>
       <c r="F30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>15</v>
@@ -2532,7 +2521,7 @@
       <c r="C31" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="35"/>
@@ -2540,7 +2529,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" s="36" t="s">
         <v>15</v>
@@ -2548,7 +2537,7 @@
       <c r="C32" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="35"/>
@@ -2556,9 +2545,9 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="41">
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="44">
         <v>18</v>
       </c>
       <c r="E33" s="1"/>
@@ -2576,15 +2565,15 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="32" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="38" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="38" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="38" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="32" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="39" width="9.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="40" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="40" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="40" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -2600,7 +2589,7 @@
       <c r="D1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="37" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2699,10 +2688,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C8" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D8" s="36">
         <f>C8-B8</f>
@@ -2715,10 +2704,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C9" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D9" s="36">
         <f>C9-B9</f>
@@ -2731,10 +2720,10 @@
         <v>24</v>
       </c>
       <c r="B10" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C10" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D10" s="36">
         <f>C10-B10</f>
@@ -2747,10 +2736,10 @@
         <v>25</v>
       </c>
       <c r="B11" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C11" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D11" s="36">
         <f>C11-B11</f>
@@ -2763,10 +2752,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="36">
-        <v>1.34375</v>
+        <v>2.34375</v>
       </c>
       <c r="C12" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D12" s="36">
         <f>C12-B12</f>
@@ -2809,10 +2798,10 @@
         <v>29</v>
       </c>
       <c r="B15" s="36">
-        <v>1.34375</v>
+        <v>2.34375</v>
       </c>
       <c r="C15" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D15" s="36">
         <f>C15-B15</f>
@@ -2825,10 +2814,10 @@
         <v>30</v>
       </c>
       <c r="B16" s="36">
-        <v>1.34375</v>
+        <v>2.34375</v>
       </c>
       <c r="C16" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D16" s="36">
         <f>C16-B16</f>
@@ -2841,10 +2830,10 @@
         <v>31</v>
       </c>
       <c r="B17" s="36">
-        <v>1.34375</v>
+        <v>2.34375</v>
       </c>
       <c r="C17" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D17" s="36">
         <f>C17-B17</f>
@@ -2857,10 +2846,10 @@
         <v>32</v>
       </c>
       <c r="B18" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C18" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D18" s="36">
         <f>C18-B18</f>
@@ -2873,10 +2862,10 @@
         <v>33</v>
       </c>
       <c r="B19" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C19" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D19" s="36">
         <f>C19-B19</f>
@@ -2919,10 +2908,10 @@
         <v>36</v>
       </c>
       <c r="B22" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C22" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D22" s="36">
         <f>C22-B22</f>
@@ -2935,10 +2924,10 @@
         <v>37</v>
       </c>
       <c r="B23" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C23" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D23" s="36">
         <f>C23-B23</f>
@@ -2951,10 +2940,10 @@
         <v>38</v>
       </c>
       <c r="B24" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C24" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D24" s="36">
         <f>C24-B24</f>
@@ -2967,10 +2956,10 @@
         <v>39</v>
       </c>
       <c r="B25" s="36">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C25" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D25" s="36">
         <f>C25-B25</f>
@@ -2983,10 +2972,10 @@
         <v>40</v>
       </c>
       <c r="B26" s="36">
-        <v>1.34375</v>
+        <v>2.34375</v>
       </c>
       <c r="C26" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D26" s="36">
         <f>C26-B26</f>
@@ -3029,10 +3018,10 @@
         <v>43</v>
       </c>
       <c r="B29" s="36">
-        <v>1.34375</v>
+        <v>2.34375</v>
       </c>
       <c r="C29" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D29" s="36">
         <f>C29-B29</f>
@@ -3041,30 +3030,30 @@
       <c r="E29" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="38" t="s">
         <v>44</v>
       </c>
       <c r="B30" s="36">
-        <v>1.34375</v>
+        <v>2.34375</v>
       </c>
       <c r="C30" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D30" s="36">
         <f>C30-B30</f>
         <v>25569.041666666668</v>
       </c>
-      <c r="E30" s="37"/>
+      <c r="E30" s="38"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="35" t="s">
         <v>45</v>
       </c>
       <c r="B31" s="36">
-        <v>1.34375</v>
+        <v>2.34375</v>
       </c>
       <c r="C31" s="36">
-        <v>1.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D31" s="36">
         <f>C31-B31</f>
